--- a/TestComponents/TestSets/Losses/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/Losses/FieldConfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\Losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574AECB-0EA8-4EF7-B93A-7A8893B683C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA7AF8-C4AA-4AF1-A150-E53F73000165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="82">
   <si>
     <t>SampleDepth</t>
   </si>
   <si>
-    <t>0-30cm</t>
-  </si>
-  <si>
     <t>PMN</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Rocks</t>
   </si>
   <si>
-    <t>Silt loam</t>
-  </si>
-  <si>
     <t>lauder</t>
   </si>
   <si>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Levin_LowYield</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Top30cm</t>
   </si>
 </sst>
 </file>
@@ -386,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -532,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,224 +688,224 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24:Q24"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="E2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -953,71 +953,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6:E6" si="0">C6</f>
-        <v>0-30cm</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>0-30cm</v>
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G8" si="1">F6</f>
-        <v>0-30cm</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ref="H6:H8" si="2">G6</f>
-        <v>0-30cm</v>
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6:J8" si="3">I6</f>
-        <v>0-30cm</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" ref="K6:K8" si="4">J6</f>
-        <v>0-30cm</v>
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" ref="M6:M8" si="5">L6</f>
-        <v>0-30cm</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" ref="N6:N8" si="6">M6</f>
-        <v>0-30cm</v>
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" ref="P6" si="7">O6</f>
-        <v>0-30cm</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" ref="Q6" si="8">P6</f>
-        <v>0-30cm</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1065,53 +1055,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:E8" si="9">C8</f>
+        <f t="shared" ref="D8:E8" si="0">C8</f>
         <v>3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G6:G8" si="1">F8</f>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H6:H8" si="2">G8</f>
         <v>3</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J6:J8" si="3">I8</f>
         <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K6:K8" si="4">J8</f>
         <v>3</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M6:M8" si="5">L8</f>
         <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N6:N8" si="6">M8</f>
         <v>3</v>
       </c>
       <c r="O8">
@@ -1124,216 +1114,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1381,10 +1371,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1432,10 +1422,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1483,10 +1473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1534,10 +1524,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>44831</v>
@@ -1585,61 +1575,61 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>44951</v>
@@ -1687,216 +1677,216 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1944,10 +1934,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1995,10 +1985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2046,10 +2036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -2097,10 +2087,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4">
         <v>45026</v>
@@ -2148,61 +2138,61 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4">
         <v>45332</v>
@@ -2250,216 +2240,216 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -2507,10 +2497,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2558,10 +2548,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2609,10 +2599,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2660,10 +2650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4">
         <v>45352</v>
@@ -2711,61 +2701,61 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <v>45566</v>
@@ -2813,157 +2803,157 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
